--- a/MP4/Table for network.xlsx
+++ b/MP4/Table for network.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaot/Documents/CS543/Computer-Vision-Project/MP4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4CE5E7-B2B3-7A4D-AB38-EE4114952F3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42533D04-A246-534C-B130-227DE6A56BF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{17267B49-5DD5-3241-833A-89481101E20D}"/>
   </bookViews>
@@ -211,10 +211,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,11 +540,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3867A1-BD39-9440-9500-BFF1CA906E38}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="25.83203125" style="5"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -547,7 +559,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -564,7 +576,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -573,7 +585,7 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>3</v>
       </c>
       <c r="E2" s="2">
@@ -590,7 +602,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -599,7 +611,7 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="2">
@@ -616,7 +628,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -625,7 +637,7 @@
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="2">
@@ -642,7 +654,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -651,7 +663,7 @@
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>3</v>
       </c>
       <c r="E5" s="2">
@@ -668,7 +680,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -677,7 +689,7 @@
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="2">
@@ -694,7 +706,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -703,7 +715,7 @@
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="2">
@@ -720,7 +732,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -729,7 +741,7 @@
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>3</v>
       </c>
       <c r="E8" s="2">
@@ -746,7 +758,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -755,7 +767,7 @@
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="2">
@@ -772,7 +784,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -781,7 +793,7 @@
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="2">
@@ -798,7 +810,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -807,7 +819,7 @@
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>3</v>
       </c>
       <c r="E11" s="2">
@@ -824,7 +836,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -833,7 +845,7 @@
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="2">
@@ -850,7 +862,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -859,7 +871,7 @@
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E13" s="2">
@@ -876,7 +888,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -885,7 +897,7 @@
       <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="4">
         <v>3</v>
       </c>
       <c r="E14" s="2">
@@ -902,7 +914,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -911,7 +923,7 @@
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="2">
@@ -928,7 +940,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -937,7 +949,7 @@
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E16" s="2">
@@ -954,7 +966,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -963,7 +975,7 @@
       <c r="C17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="4">
         <v>3</v>
       </c>
       <c r="E17" s="2">
@@ -980,7 +992,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -989,7 +1001,7 @@
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="2">
@@ -1006,7 +1018,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1015,7 +1027,7 @@
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="2">
@@ -1032,7 +1044,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1041,7 +1053,7 @@
       <c r="C20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="4">
         <v>3</v>
       </c>
       <c r="E20" s="2">
@@ -1058,7 +1070,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1067,7 +1079,7 @@
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E21" s="2">
@@ -1084,7 +1096,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1093,7 +1105,7 @@
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="2">
@@ -1110,7 +1122,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1119,7 +1131,7 @@
       <c r="C23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="4">
         <v>2</v>
       </c>
       <c r="E23" s="2">
@@ -1136,7 +1148,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1145,7 +1157,7 @@
       <c r="C24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="4">
         <v>3</v>
       </c>
       <c r="E24" s="2">
@@ -1162,7 +1174,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1171,7 +1183,7 @@
       <c r="C25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="2">
@@ -1188,7 +1200,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1197,7 +1209,7 @@
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E26" s="2">
@@ -1214,7 +1226,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1223,7 +1235,7 @@
       <c r="C27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="4">
         <v>3</v>
       </c>
       <c r="E27" s="2">
@@ -1240,7 +1252,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1249,7 +1261,7 @@
       <c r="C28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E28" s="2">
@@ -1266,7 +1278,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1275,7 +1287,7 @@
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E29" s="2">
@@ -1292,7 +1304,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1301,7 +1313,7 @@
       <c r="C30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="4">
         <v>3</v>
       </c>
       <c r="E30" s="2">
@@ -1318,7 +1330,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -1327,7 +1339,7 @@
       <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E31" s="2">
@@ -1344,7 +1356,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1353,7 +1365,7 @@
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E32" s="2">
@@ -1370,7 +1382,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1379,7 +1391,7 @@
       <c r="C33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="4">
         <v>3</v>
       </c>
       <c r="E33" s="2">
@@ -1396,7 +1408,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1405,7 +1417,7 @@
       <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E34" s="2">
@@ -1422,7 +1434,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1431,7 +1443,7 @@
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E35" s="2">
@@ -1448,7 +1460,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -1457,7 +1469,7 @@
       <c r="C36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="4">
         <v>3</v>
       </c>
       <c r="E36" s="2">
@@ -1474,7 +1486,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -1483,7 +1495,7 @@
       <c r="C37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E37" s="2">
@@ -1500,7 +1512,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -1509,7 +1521,7 @@
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E38" s="2">
@@ -1526,7 +1538,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -1535,7 +1547,7 @@
       <c r="C39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="4">
         <v>3</v>
       </c>
       <c r="E39" s="2">
@@ -1552,7 +1564,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -1561,7 +1573,7 @@
       <c r="C40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E40" s="2">
@@ -1578,7 +1590,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -1587,7 +1599,7 @@
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E41" s="2">
@@ -1604,7 +1616,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -1613,7 +1625,7 @@
       <c r="C42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="4">
         <v>2</v>
       </c>
       <c r="E42" s="2">
@@ -1630,7 +1642,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -1639,7 +1651,7 @@
       <c r="C43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="4">
         <v>3</v>
       </c>
       <c r="E43" s="2">
@@ -1656,7 +1668,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -1665,7 +1677,7 @@
       <c r="C44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E44" s="2">
@@ -1682,7 +1694,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1691,7 +1703,7 @@
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E45" s="2">
@@ -1708,7 +1720,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -1717,7 +1729,7 @@
       <c r="C46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="4">
         <v>3</v>
       </c>
       <c r="E46" s="2">
@@ -1734,7 +1746,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -1743,7 +1755,7 @@
       <c r="C47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E47" s="2">
@@ -1760,7 +1772,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -1769,7 +1781,7 @@
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E48" s="2">
@@ -1786,7 +1798,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -1795,7 +1807,7 @@
       <c r="C49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="4">
         <v>3</v>
       </c>
       <c r="E49" s="2">
@@ -1812,7 +1824,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -1821,7 +1833,7 @@
       <c r="C50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E50" s="2">
@@ -1838,7 +1850,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -1847,7 +1859,7 @@
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E51" s="2">
@@ -1864,7 +1876,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -1873,7 +1885,7 @@
       <c r="C52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="4">
         <v>3</v>
       </c>
       <c r="E52" s="2">
@@ -1890,7 +1902,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -1899,7 +1911,7 @@
       <c r="C53" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E53" s="2">
@@ -1916,7 +1928,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -1925,7 +1937,7 @@
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E54" s="2">
@@ -1942,7 +1954,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -1951,7 +1963,7 @@
       <c r="C55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="4">
         <v>3</v>
       </c>
       <c r="E55" s="2">
@@ -1968,7 +1980,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -1977,7 +1989,7 @@
       <c r="C56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E56" s="2">
@@ -1994,7 +2006,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -2003,7 +2015,7 @@
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E57" s="2">
@@ -2020,7 +2032,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -2029,7 +2041,7 @@
       <c r="C58" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="4">
         <v>3</v>
       </c>
       <c r="E58" s="2">
@@ -2046,7 +2058,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -2055,7 +2067,7 @@
       <c r="C59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E59" s="2">
@@ -2072,7 +2084,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -2081,7 +2093,7 @@
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E60" s="2">
@@ -2098,7 +2110,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -2107,7 +2119,7 @@
       <c r="C61" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="4">
         <v>2</v>
       </c>
       <c r="E61" s="2">
@@ -2124,7 +2136,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -2133,7 +2145,7 @@
       <c r="C62" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="4">
         <v>3</v>
       </c>
       <c r="E62" s="2">
@@ -2150,7 +2162,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -2159,7 +2171,7 @@
       <c r="C63" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E63" s="2">
@@ -2176,7 +2188,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -2185,7 +2197,7 @@
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E64" s="2">
@@ -2202,7 +2214,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -2211,7 +2223,7 @@
       <c r="C65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="4">
         <v>3</v>
       </c>
       <c r="E65" s="2">
@@ -2228,7 +2240,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -2237,7 +2249,7 @@
       <c r="C66" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E66" s="2">
@@ -2254,7 +2266,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -2263,7 +2275,7 @@
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E67" s="2">
@@ -2280,7 +2292,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -2289,7 +2301,7 @@
       <c r="C68" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="4">
         <v>3</v>
       </c>
       <c r="E68" s="2">
@@ -2306,7 +2318,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -2315,7 +2327,7 @@
       <c r="C69" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E69" s="2">
@@ -2332,7 +2344,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -2341,7 +2353,7 @@
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E70" s="2">
@@ -2358,7 +2370,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -2367,7 +2379,7 @@
       <c r="C71" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="4">
         <v>3</v>
       </c>
       <c r="E71" s="2">
@@ -2384,7 +2396,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -2393,7 +2405,7 @@
       <c r="C72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E72" s="2">
@@ -2410,7 +2422,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -2419,7 +2431,7 @@
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E73" s="2">
@@ -2436,7 +2448,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -2445,7 +2457,7 @@
       <c r="C74" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="4">
         <v>3</v>
       </c>
       <c r="E74" s="2">
@@ -2462,7 +2474,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -2471,7 +2483,7 @@
       <c r="C75" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E75" s="2">
@@ -2488,7 +2500,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -2497,7 +2509,7 @@
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E76" s="2">
@@ -2514,7 +2526,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -2523,7 +2535,7 @@
       <c r="C77" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="4">
         <v>3</v>
       </c>
       <c r="E77" s="2">
@@ -2540,7 +2552,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -2549,7 +2561,7 @@
       <c r="C78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E78" s="2">
@@ -2566,7 +2578,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -2575,7 +2587,7 @@
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E79" s="2">
@@ -2592,7 +2604,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -2601,7 +2613,7 @@
       <c r="C80" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="4">
         <v>2</v>
       </c>
       <c r="E80" s="2">
@@ -2618,7 +2630,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -2627,7 +2639,7 @@
       <c r="C81" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E81" s="2">
@@ -2644,7 +2656,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -2653,7 +2665,7 @@
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E82" s="2">
@@ -2670,7 +2682,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="20" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -2679,7 +2691,7 @@
       <c r="C83" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E83" s="2">
